--- a/financial_models/opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA1D561-25C2-4776-BB55-CF60F28DF171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E14A739-93F5-4E68-A209-4AFE7C148A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="12689" windowHeight="7642" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2152,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="171">
-        <v>7.76</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="H3" s="173" t="s">
         <v>2</v>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="G5" s="199">
         <f>G3*G4/1000000</f>
-        <v>63413.788303360001</v>
+        <v>64884.72715943872</v>
       </c>
       <c r="H5" s="199"/>
       <c r="I5" s="38"/>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.38128495336203372</v>
+        <v>0.39012919478245461</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>2.2405978857514743E-2</v>
+        <v>2.1898034594622019E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>7.4742268041237112E-2</v>
+        <v>7.3047858415638281E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/financial_models/opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E14A739-93F5-4E68-A209-4AFE7C148A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C4C7FFD-1D3F-9046-B13C-6ECD7E89EE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="12689" windowHeight="7642" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="12680" windowHeight="7640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -811,16 +822,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00\x"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1275,7 +1286,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="215">
@@ -1331,8 +1342,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1355,14 +1366,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1387,7 +1398,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1404,7 +1415,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1412,7 +1423,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1459,7 +1470,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1533,7 +1544,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1612,10 +1623,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1626,16 +1637,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1699,7 +1710,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1708,10 +1719,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1732,7 +1743,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1746,7 +1757,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1754,13 +1765,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1770,9 +1781,9 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2103,19 +2114,19 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2124,7 +2135,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2139,7 +2150,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>219</v>
       </c>
@@ -2158,7 +2169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
         <v>220</v>
       </c>
@@ -2176,7 +2187,7 @@
       <c r="H4" s="207"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
@@ -2196,7 +2207,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2220,7 +2231,7 @@
       <c r="H6" s="200"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="93" t="s">
         <v>217</v>
       </c>
@@ -2242,8 +2253,8 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="180" t="s">
         <v>215</v>
       </c>
@@ -2251,7 +2262,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>197</v>
       </c>
@@ -2262,12 +2273,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="147" t="s">
         <v>201</v>
       </c>
       <c r="C11" s="184">
-        <v>5.2900000000000003E-2</v>
+        <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="177" t="s">
         <v>213</v>
@@ -2276,7 +2287,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="94" t="s">
         <v>141</v>
       </c>
@@ -2288,8 +2299,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>198</v>
       </c>
@@ -2300,7 +2311,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>210</v>
       </c>
@@ -2311,7 +2322,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="147" t="s">
         <v>211</v>
       </c>
@@ -2325,7 +2336,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="94" t="s">
         <v>203</v>
       </c>
@@ -2334,8 +2345,8 @@
       </c>
       <c r="D17" s="189"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="185" t="s">
         <v>207</v>
       </c>
@@ -2350,7 +2361,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="177" t="s">
         <v>185</v>
       </c>
@@ -2366,7 +2377,7 @@
         <v>4.6514478320821201E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="177" t="s">
         <v>186</v>
       </c>
@@ -2382,7 +2393,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="177" t="s">
         <v>187</v>
       </c>
@@ -2394,7 +2405,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="177" t="s">
         <v>188</v>
       </c>
@@ -2410,7 +2421,7 @@
         <v>0.39012919478245461</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="177" t="s">
         <v>189</v>
       </c>
@@ -2426,7 +2437,7 @@
         <v>2.1898034594622019E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="177" t="s">
         <v>216</v>
       </c>
@@ -2442,7 +2453,7 @@
         <v>3.3358180205623684</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="179" t="s">
         <v>191</v>
       </c>
@@ -2458,8 +2469,8 @@
         <v>7.3047858415638281E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2477,7 +2488,7 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
         <v>184</v>
       </c>
@@ -2496,900 +2507,900 @@
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3453,7 +3464,7 @@
       <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3461,7 +3472,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3469,7 +3480,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3486,7 +3497,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3512,13 +3523,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="140" t="s">
         <v>145</v>
@@ -3568,7 +3579,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3598,7 +3609,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3649,7 +3660,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3679,7 +3690,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3730,7 +3741,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3760,7 +3771,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3811,7 +3822,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3839,7 +3850,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3890,7 +3901,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3908,7 +3919,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3938,7 +3949,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3960,7 +3971,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>128</v>
@@ -3990,7 +4001,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -4012,7 +4023,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4063,7 +4074,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4114,7 +4125,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4165,7 +4176,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4216,7 +4227,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>137</v>
@@ -4267,7 +4278,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="139" t="s">
         <v>146</v>
@@ -4318,7 +4329,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4369,7 +4380,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4400,7 +4411,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>120</v>
@@ -4421,7 +4432,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>160</v>
@@ -4442,7 +4453,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4473,7 +4484,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>119</v>
@@ -4504,7 +4515,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4535,7 +4546,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4566,7 +4577,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4617,7 +4628,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>149</v>
@@ -4648,7 +4659,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>150</v>
@@ -4677,7 +4688,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>148</v>
@@ -4698,7 +4709,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>152</v>
@@ -4749,7 +4760,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>172</v>
@@ -4800,7 +4811,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>131</v>
@@ -4818,7 +4829,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4869,7 +4880,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>125</v>
@@ -4920,7 +4931,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4971,7 +4982,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -5022,7 +5033,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>126</v>
@@ -5073,7 +5084,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>138</v>
@@ -5124,7 +5135,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>129</v>
@@ -5175,7 +5186,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>161</v>
@@ -5193,7 +5204,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>158</v>
@@ -5244,7 +5255,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>159</v>
@@ -5295,7 +5306,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>130</v>
@@ -5312,7 +5323,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5362,7 +5373,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>124</v>
@@ -5412,7 +5423,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>127</v>
@@ -5462,7 +5473,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5512,1260 +5523,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6804,7 +6815,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
@@ -6813,11 +6824,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6833,7 +6844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6856,7 +6867,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6872,7 +6883,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6887,7 +6898,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -6912,7 +6923,7 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -6935,13 +6946,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6960,7 +6971,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6985,7 +6996,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -7008,7 +7019,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>147</v>
       </c>
@@ -7033,7 +7044,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>120</v>
       </c>
@@ -7056,7 +7067,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -7079,7 +7090,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7104,7 +7115,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>173</v>
       </c>
@@ -7124,7 +7135,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>121</v>
       </c>
@@ -7144,7 +7155,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7163,7 +7174,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7185,7 +7196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>123</v>
       </c>
@@ -7209,7 +7220,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7228,7 +7239,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7252,7 +7263,7 @@
         <v>7798000</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7261,7 +7272,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7283,7 +7294,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7312,7 +7323,7 @@
         <v>7.9019953952417499</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7345,7 +7356,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7378,7 +7389,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7407,7 +7418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7419,7 +7430,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7442,7 +7453,7 @@
       </c>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7466,7 +7477,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7488,7 +7499,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>174</v>
       </c>
@@ -7513,7 +7524,7 @@
       <c r="I33" s="145"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7538,7 +7549,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7561,7 +7572,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7585,7 +7596,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7609,7 +7620,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>122</v>
       </c>
@@ -7628,7 +7639,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7647,7 +7658,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7666,7 +7677,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7685,7 +7696,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7709,7 +7720,7 @@
         <v>5363000</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7718,7 +7729,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7737,7 +7748,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7756,7 +7767,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7786,7 +7797,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7816,7 +7827,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7842,7 +7853,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7869,20 +7880,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7899,7 +7910,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7920,7 +7931,7 @@
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7929,7 +7940,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>162</v>
       </c>
@@ -7940,7 +7951,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -7955,7 +7966,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7970,7 +7981,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7984,7 +7995,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7993,7 +8004,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>165</v>
       </c>
@@ -8007,7 +8018,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -8028,7 +8039,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>151</v>
       </c>
@@ -8049,7 +8060,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>153</v>
       </c>
@@ -8070,7 +8081,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="146" t="s">
         <v>163</v>
       </c>
@@ -8085,7 +8096,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>154</v>
       </c>
@@ -8106,7 +8117,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -8116,7 +8127,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>166</v>
       </c>
@@ -8130,7 +8141,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>152</v>
       </c>
@@ -8151,7 +8162,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="146" t="s">
         <v>164</v>
       </c>
@@ -8166,7 +8177,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>155</v>
       </c>
@@ -8187,7 +8198,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>136</v>
@@ -8201,7 +8212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
@@ -8215,7 +8226,7 @@
       </c>
       <c r="F73" s="209"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>135</v>
       </c>
@@ -8230,7 +8241,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8251,7 +8262,7 @@
         <v>0.60969766115231028</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8266,7 +8277,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="117" t="s">
         <v>132</v>
       </c>
@@ -8287,7 +8298,7 @@
         <v>0.10541928123217342</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8302,7 +8313,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="117" t="s">
         <v>128</v>
       </c>
@@ -8323,7 +8334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>134</v>
       </c>
@@ -8344,7 +8355,7 @@
         <v>7.8722190530519116E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8367,7 +8378,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="79" t="s">
         <v>190</v>
       </c>
@@ -8388,7 +8399,7 @@
         <v>1.7227609811751282E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="119" t="s">
         <v>133</v>
       </c>
@@ -8409,7 +8420,7 @@
         <v>0.25978322875071308</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8420,7 +8431,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="93" t="s">
         <v>179</v>
       </c>
@@ -8441,7 +8452,7 @@
         <v>0.20263091842555619</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="94" t="s">
         <v>175</v>
       </c>
@@ -8456,7 +8467,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="93" t="s">
         <v>176</v>
       </c>
@@ -8477,11 +8488,11 @@
         <v>3.3358180205623684</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>168</v>
@@ -8491,7 +8502,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
@@ -8501,7 +8512,7 @@
       <c r="E90" s="214"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>194</v>
       </c>
@@ -8518,7 +8529,7 @@
       </c>
       <c r="H91" s="187"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (US)</v>
@@ -8536,7 +8547,7 @@
       </c>
       <c r="H92" s="187"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5"/>
       <c r="B94" s="198" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Data!E3&amp;Dashboard!H3</f>
@@ -8548,7 +8559,7 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>139</v>
       </c>
@@ -8561,7 +8572,7 @@
         <v>2.2802674876631399</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="28" t="s">
         <v>156</v>
       </c>
@@ -8576,7 +8587,7 @@
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
     </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B97" s="119" t="s">
         <v>157</v>
       </c>
@@ -8595,7 +8606,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
         <v>226</v>
       </c>
@@ -8616,7 +8627,7 @@
         <v>14.417333108983946</v>
       </c>
     </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="10" t="s">
         <v>177</v>
       </c>
@@ -8631,7 +8642,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
         <v>227</v>
       </c>
@@ -8652,7 +8663,7 @@
         <v>9.5081967213114744</v>
       </c>
     </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="10" t="s">
         <v>225</v>
       </c>
@@ -8667,7 +8678,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="1" t="s">
         <v>228</v>
       </c>
@@ -8688,7 +8699,7 @@
         <v>11.962764915147712</v>
       </c>
     </row>
-    <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="10" t="s">
         <v>180</v>
       </c>

--- a/financial_models/opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C4C7FFD-1D3F-9046-B13C-6ECD7E89EE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE59500-EEE9-4EC9-9836-21BBD57A40E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="12680" windowHeight="7640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
+  <calcPr calcId="191029" concurrentManualCount="8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -821,17 +810,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00\x"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
+  <numFmts count="11">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1286,10 +1276,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1342,8 +1332,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1366,14 +1356,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1398,7 +1388,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1415,7 +1405,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1423,7 +1413,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1470,7 +1460,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1544,7 +1534,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1623,10 +1613,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1637,16 +1627,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1710,7 +1700,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1719,10 +1709,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1743,7 +1733,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1757,7 +1747,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1765,13 +1755,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1779,11 +1769,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2114,19 +2105,19 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2135,7 +2126,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2150,7 +2141,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>219</v>
       </c>
@@ -2169,7 +2160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>220</v>
       </c>
@@ -2187,7 +2178,7 @@
       <c r="H4" s="207"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
@@ -2207,7 +2198,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2231,7 +2222,7 @@
       <c r="H6" s="200"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="93" t="s">
         <v>217</v>
       </c>
@@ -2253,8 +2244,8 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="180" t="s">
         <v>215</v>
       </c>
@@ -2262,7 +2253,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>197</v>
       </c>
@@ -2273,7 +2264,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="147" t="s">
         <v>201</v>
       </c>
@@ -2287,7 +2278,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="94" t="s">
         <v>141</v>
       </c>
@@ -2299,8 +2290,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>198</v>
       </c>
@@ -2311,7 +2302,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>210</v>
       </c>
@@ -2322,7 +2313,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="147" t="s">
         <v>211</v>
       </c>
@@ -2336,7 +2327,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="94" t="s">
         <v>203</v>
       </c>
@@ -2345,8 +2336,8 @@
       </c>
       <c r="D17" s="189"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="185" t="s">
         <v>207</v>
       </c>
@@ -2361,7 +2352,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="177" t="s">
         <v>185</v>
       </c>
@@ -2377,7 +2368,7 @@
         <v>4.6514478320821201E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="177" t="s">
         <v>186</v>
       </c>
@@ -2393,7 +2384,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="177" t="s">
         <v>187</v>
       </c>
@@ -2405,7 +2396,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="177" t="s">
         <v>188</v>
       </c>
@@ -2421,7 +2412,7 @@
         <v>0.39012919478245461</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="177" t="s">
         <v>189</v>
       </c>
@@ -2437,7 +2428,7 @@
         <v>2.1898034594622019E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="177" t="s">
         <v>216</v>
       </c>
@@ -2453,7 +2444,7 @@
         <v>3.3358180205623684</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="179" t="s">
         <v>191</v>
       </c>
@@ -2469,8 +2460,8 @@
         <v>7.3047858415638281E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2488,919 +2479,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="94" t="s">
         <v>184</v>
       </c>
       <c r="C29" s="168">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>7.1776589490886273</v>
+        <v>7.1590646964576488</v>
       </c>
       <c r="D29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>11.962764915147712</v>
+        <v>11.931774494096082</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="169">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>9.5702119321181698</v>
+        <v>9.545419595276865</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3464,7 +3455,7 @@
       <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3472,7 +3463,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3480,7 +3471,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3497,7 +3488,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3523,13 +3514,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="140" t="s">
         <v>145</v>
@@ -3579,7 +3570,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3609,7 +3600,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3660,7 +3651,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3690,7 +3681,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3741,7 +3732,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3771,7 +3762,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3822,7 +3813,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3850,7 +3841,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3901,7 +3892,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3919,7 +3910,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3949,7 +3940,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3971,7 +3962,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>128</v>
@@ -4001,7 +3992,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -4023,7 +4014,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4074,7 +4065,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4125,7 +4116,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4176,7 +4167,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4227,7 +4218,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>137</v>
@@ -4278,7 +4269,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="139" t="s">
         <v>146</v>
@@ -4329,7 +4320,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4380,7 +4371,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4411,7 +4402,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>120</v>
@@ -4432,7 +4423,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>160</v>
@@ -4453,7 +4444,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4484,7 +4475,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>119</v>
@@ -4515,7 +4506,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4546,7 +4537,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4577,7 +4568,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4628,7 +4619,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>149</v>
@@ -4659,7 +4650,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>150</v>
@@ -4688,7 +4679,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>148</v>
@@ -4709,7 +4700,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>152</v>
@@ -4760,7 +4751,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>172</v>
@@ -4811,7 +4802,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>131</v>
@@ -4829,7 +4820,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4880,7 +4871,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>125</v>
@@ -4931,7 +4922,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4982,7 +4973,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -5033,7 +5024,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>126</v>
@@ -5084,7 +5075,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>138</v>
@@ -5135,7 +5126,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>129</v>
@@ -5186,7 +5177,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>161</v>
@@ -5204,7 +5195,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>158</v>
@@ -5255,7 +5246,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>159</v>
@@ -5306,7 +5297,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>130</v>
@@ -5323,7 +5314,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5373,7 +5364,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>124</v>
@@ -5423,7 +5414,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>127</v>
@@ -5473,7 +5464,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5523,1260 +5514,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6809,13 +6800,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K106"/>
+  <dimension ref="A2:K109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
@@ -6824,11 +6815,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6844,7 +6835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6867,7 +6858,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6883,7 +6874,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6898,13 +6889,13 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
-        <f>E49-I49-E53</f>
+        <f>(E49-I49-E53)*Exchange_Rate</f>
         <v>78388500</v>
       </c>
       <c r="E6" s="56">
@@ -6923,7 +6914,7 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -6946,13 +6937,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6971,7 +6962,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6996,7 +6987,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -7019,7 +7010,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>147</v>
       </c>
@@ -7044,7 +7035,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>120</v>
       </c>
@@ -7067,7 +7058,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -7090,7 +7081,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7115,7 +7106,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>173</v>
       </c>
@@ -7135,7 +7126,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>121</v>
       </c>
@@ -7155,7 +7146,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7174,7 +7165,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7196,7 +7187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>123</v>
       </c>
@@ -7220,7 +7211,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7239,7 +7230,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7263,7 +7254,7 @@
         <v>7798000</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7272,7 +7263,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7294,7 +7285,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7323,7 +7314,7 @@
         <v>7.9019953952417499</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7356,7 +7347,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7389,7 +7380,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7418,7 +7409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7430,7 +7421,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7453,7 +7444,7 @@
       </c>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7477,7 +7468,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7499,7 +7490,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>174</v>
       </c>
@@ -7524,7 +7515,7 @@
       <c r="I33" s="145"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7549,7 +7540,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7572,7 +7563,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7596,7 +7587,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7620,7 +7611,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>122</v>
       </c>
@@ -7639,7 +7630,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7658,7 +7649,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7677,7 +7668,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7696,7 +7687,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7720,7 +7711,7 @@
         <v>5363000</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7729,7 +7720,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7748,7 +7739,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7767,7 +7758,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7797,7 +7788,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7827,7 +7818,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7853,7 +7844,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7880,20 +7871,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7910,7 +7901,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7931,7 +7922,7 @@
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7940,7 +7931,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>162</v>
       </c>
@@ -7951,7 +7942,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -7966,7 +7957,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7981,7 +7972,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7995,7 +7986,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -8004,7 +7995,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>165</v>
       </c>
@@ -8018,7 +8009,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -8039,7 +8030,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>151</v>
       </c>
@@ -8060,7 +8051,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>153</v>
       </c>
@@ -8081,7 +8072,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="146" t="s">
         <v>163</v>
       </c>
@@ -8096,7 +8087,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>154</v>
       </c>
@@ -8117,7 +8108,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -8127,7 +8118,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>166</v>
       </c>
@@ -8141,7 +8132,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>152</v>
       </c>
@@ -8162,7 +8153,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="146" t="s">
         <v>164</v>
       </c>
@@ -8177,7 +8168,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>155</v>
       </c>
@@ -8198,7 +8189,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>136</v>
@@ -8212,7 +8203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
@@ -8226,7 +8217,7 @@
       </c>
       <c r="F73" s="209"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>135</v>
       </c>
@@ -8241,7 +8232,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8262,7 +8253,7 @@
         <v>0.60969766115231028</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8277,7 +8268,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="117" t="s">
         <v>132</v>
       </c>
@@ -8298,7 +8289,7 @@
         <v>0.10541928123217342</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8313,7 +8304,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="117" t="s">
         <v>128</v>
       </c>
@@ -8334,7 +8325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>134</v>
       </c>
@@ -8355,7 +8346,7 @@
         <v>7.8722190530519116E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8378,7 +8369,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="79" t="s">
         <v>190</v>
       </c>
@@ -8399,7 +8390,7 @@
         <v>1.7227609811751282E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="119" t="s">
         <v>133</v>
       </c>
@@ -8420,7 +8411,7 @@
         <v>0.25978322875071308</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8431,7 +8422,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="93" t="s">
         <v>179</v>
       </c>
@@ -8452,7 +8443,7 @@
         <v>0.20263091842555619</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="94" t="s">
         <v>175</v>
       </c>
@@ -8467,7 +8458,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="93" t="s">
         <v>176</v>
       </c>
@@ -8488,11 +8479,11 @@
         <v>3.3358180205623684</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>168</v>
@@ -8502,7 +8493,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
@@ -8512,7 +8503,7 @@
       <c r="E90" s="214"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
         <v>194</v>
       </c>
@@ -8529,7 +8520,7 @@
       </c>
       <c r="H91" s="187"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (US)</v>
@@ -8547,7 +8538,7 @@
       </c>
       <c r="H92" s="187"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="198" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Data!E3&amp;Dashboard!H3</f>
@@ -8559,7 +8550,7 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1" t="s">
         <v>139</v>
       </c>
@@ -8571,23 +8562,27 @@
         <f>C95*Data!$E$3/Common_Shares</f>
         <v>2.2802674876631399</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E95" s="1">
+        <f>E85/C95</f>
+        <v>7.6249999999999998E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>156</v>
       </c>
       <c r="C96" s="102">
-        <f>E82*Exchange_Rate</f>
-        <v>120799.99999999999</v>
+        <f>E53*Exchange_Rate</f>
+        <v>526000</v>
       </c>
       <c r="D96" s="155">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>1.4782400248911341E-2</v>
+        <v>6.4367073931517929E-2</v>
       </c>
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
     </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B97" s="119" t="s">
         <v>157</v>
       </c>
@@ -8606,28 +8601,28 @@
         <v>143</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>94253372.131147534</v>
+        <v>93848172.131147534</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>11.533866487187158</v>
+        <v>11.484281813504552</v>
       </c>
       <c r="E98" s="124">
         <f>D98*(1-25%)</f>
-        <v>8.6503998653903693</v>
+        <v>8.6132113601284139</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>14.417333108983946</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>14.35535226688069</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10" t="s">
         <v>177</v>
       </c>
@@ -8642,7 +8637,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="1" t="s">
         <v>227</v>
       </c>
@@ -8663,7 +8658,7 @@
         <v>9.5081967213114744</v>
       </c>
     </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
         <v>225</v>
       </c>
@@ -8678,33 +8673,45 @@
         <v>143</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B104" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>78206622.871344268</v>
+        <v>78004022.871344253</v>
       </c>
       <c r="D104" s="155">
         <f>(D98+D101)/2</f>
-        <v>9.5702119321181698</v>
+        <v>9.545419595276865</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>7.1776589490886273</v>
+        <v>7.1590646964576488</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>11.962764915147712</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>11.931774494096082</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="10" t="s">
         <v>180</v>
       </c>
       <c r="C106" s="166" t="s">
         <v>229</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C108" s="215">
+        <f>FV(E95,5,-E85,-C95)</f>
+        <v>35180958.306959279</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C109" s="215">
+        <f>PV(C92,5,0,-C108)</f>
+        <v>22220797.074859794</v>
       </c>
     </row>
   </sheetData>

--- a/financial_models/opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE59500-EEE9-4EC9-9836-21BBD57A40E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82A1E79C-0409-4E40-946D-633FE9081434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17120" windowHeight="10760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -811,17 +822,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1276,7 +1287,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="216">
@@ -1332,8 +1343,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1356,14 +1367,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1388,7 +1399,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1405,7 +1416,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1413,7 +1424,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1460,7 +1471,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1534,7 +1545,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1613,10 +1624,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1627,16 +1638,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1700,7 +1711,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1709,10 +1720,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1733,7 +1744,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1747,7 +1759,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1755,13 +1767,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1769,12 +1781,11 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2105,19 +2116,19 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2126,7 +2137,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2141,14 +2152,14 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="201" t="s">
+      <c r="C3" s="202" t="s">
         <v>223</v>
       </c>
-      <c r="D3" s="202"/>
+      <c r="D3" s="203"/>
       <c r="E3" s="94"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -2160,45 +2171,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="C4" s="203" t="s">
+      <c r="C4" s="204" t="s">
         <v>222</v>
       </c>
-      <c r="D4" s="204"/>
+      <c r="D4" s="205"/>
       <c r="E4" s="94"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="207">
+      <c r="G4" s="208">
         <v>8171879936</v>
       </c>
-      <c r="H4" s="207"/>
+      <c r="H4" s="208"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C5" s="205">
+      <c r="C5" s="206">
         <v>45593</v>
       </c>
-      <c r="D5" s="206"/>
+      <c r="D5" s="207"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="199">
+      <c r="G5" s="200">
         <f>G3*G4/1000000</f>
         <v>64884.72715943872</v>
       </c>
-      <c r="H5" s="199"/>
+      <c r="H5" s="200"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2216,13 +2227,13 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="200" t="s">
+      <c r="G6" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="200"/>
+      <c r="H6" s="201"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="93" t="s">
         <v>217</v>
       </c>
@@ -2244,8 +2255,8 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="180" t="s">
         <v>215</v>
       </c>
@@ -2253,7 +2264,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>197</v>
       </c>
@@ -2264,7 +2275,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="147" t="s">
         <v>201</v>
       </c>
@@ -2278,7 +2289,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="94" t="s">
         <v>141</v>
       </c>
@@ -2286,23 +2297,23 @@
         <v>0.08</v>
       </c>
       <c r="D12" s="170">
-        <v>9.6250000000000002E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>198</v>
       </c>
       <c r="C14" s="170">
-        <v>2.0799999999999999E-2</v>
+        <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="125" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>210</v>
       </c>
@@ -2313,7 +2324,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="147" t="s">
         <v>211</v>
       </c>
@@ -2327,17 +2338,17 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="94" t="s">
         <v>203</v>
       </c>
       <c r="C17" s="194">
-        <v>0.1125</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="D17" s="189"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="185" t="s">
         <v>207</v>
       </c>
@@ -2352,7 +2363,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="177" t="s">
         <v>185</v>
       </c>
@@ -2368,7 +2379,7 @@
         <v>4.6514478320821201E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="177" t="s">
         <v>186</v>
       </c>
@@ -2384,7 +2395,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="177" t="s">
         <v>187</v>
       </c>
@@ -2396,7 +2407,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="177" t="s">
         <v>188</v>
       </c>
@@ -2412,7 +2423,7 @@
         <v>0.39012919478245461</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="177" t="s">
         <v>189</v>
       </c>
@@ -2428,7 +2439,7 @@
         <v>2.1898034594622019E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="177" t="s">
         <v>216</v>
       </c>
@@ -2444,7 +2455,7 @@
         <v>3.3358180205623684</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="179" t="s">
         <v>191</v>
       </c>
@@ -2460,8 +2471,8 @@
         <v>7.3047858415638281E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2479,919 +2490,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
         <v>184</v>
       </c>
       <c r="C29" s="168">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>7.1590646964576488</v>
+        <v>7.8687147233681527</v>
       </c>
       <c r="D29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>11.931774494096082</v>
+        <v>13.11452453894692</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="169">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>9.545419595276865</v>
+        <v>10.491619631157537</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3455,7 +3466,7 @@
       <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3463,7 +3474,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3471,7 +3482,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3488,7 +3499,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3514,13 +3525,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="140" t="s">
         <v>145</v>
@@ -3570,7 +3581,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3600,7 +3611,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3651,7 +3662,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3681,7 +3692,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3732,7 +3743,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3762,7 +3773,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3813,7 +3824,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3841,7 +3852,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3892,7 +3903,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3910,7 +3921,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3940,7 +3951,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3962,7 +3973,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>128</v>
@@ -3992,7 +4003,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -4014,7 +4025,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4065,7 +4076,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4116,7 +4127,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4167,7 +4178,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4218,7 +4229,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>137</v>
@@ -4269,7 +4280,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="139" t="s">
         <v>146</v>
@@ -4320,7 +4331,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4371,7 +4382,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4402,7 +4413,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>120</v>
@@ -4423,7 +4434,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>160</v>
@@ -4444,7 +4455,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4475,7 +4486,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>119</v>
@@ -4506,7 +4517,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4537,7 +4548,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4568,7 +4579,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4619,7 +4630,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>149</v>
@@ -4650,7 +4661,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>150</v>
@@ -4679,7 +4690,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>148</v>
@@ -4700,7 +4711,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>152</v>
@@ -4751,7 +4762,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>172</v>
@@ -4802,7 +4813,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>131</v>
@@ -4820,7 +4831,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4871,7 +4882,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>125</v>
@@ -4922,7 +4933,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4973,7 +4984,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -5024,7 +5035,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>126</v>
@@ -5075,7 +5086,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>138</v>
@@ -5126,7 +5137,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>129</v>
@@ -5177,7 +5188,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>161</v>
@@ -5195,7 +5206,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>158</v>
@@ -5246,7 +5257,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>159</v>
@@ -5297,7 +5308,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>130</v>
@@ -5314,7 +5325,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5364,7 +5375,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>124</v>
@@ -5414,7 +5425,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>127</v>
@@ -5464,7 +5475,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5514,1260 +5525,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6806,7 +6817,7 @@
       <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
@@ -6815,11 +6826,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6835,7 +6846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6858,7 +6869,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6874,7 +6885,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6889,7 +6900,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -6914,7 +6925,7 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -6937,13 +6948,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6962,7 +6973,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6987,7 +6998,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -7010,7 +7021,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>147</v>
       </c>
@@ -7035,7 +7046,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>120</v>
       </c>
@@ -7058,7 +7069,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -7081,7 +7092,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7106,7 +7117,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>173</v>
       </c>
@@ -7126,7 +7137,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>121</v>
       </c>
@@ -7146,7 +7157,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7165,7 +7176,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7187,7 +7198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>123</v>
       </c>
@@ -7211,7 +7222,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7230,7 +7241,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7254,7 +7265,7 @@
         <v>7798000</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7263,7 +7274,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7285,7 +7296,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7314,7 +7325,7 @@
         <v>7.9019953952417499</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7347,7 +7358,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7380,7 +7391,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7409,7 +7420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7421,7 +7432,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7444,7 +7455,7 @@
       </c>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7468,7 +7479,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7490,7 +7501,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>174</v>
       </c>
@@ -7515,7 +7526,7 @@
       <c r="I33" s="145"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7540,7 +7551,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7563,7 +7574,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7587,7 +7598,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7611,7 +7622,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>122</v>
       </c>
@@ -7630,7 +7641,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7649,7 +7660,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7668,7 +7679,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7687,7 +7698,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7711,7 +7722,7 @@
         <v>5363000</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7720,7 +7731,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7739,7 +7750,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7758,7 +7769,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7788,7 +7799,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7818,7 +7829,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7844,7 +7855,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7871,20 +7882,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7901,7 +7912,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7922,7 +7933,7 @@
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7931,7 +7942,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>162</v>
       </c>
@@ -7942,51 +7953,51 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
       <c r="C56" s="94"/>
-      <c r="D56" s="212">
+      <c r="D56" s="213">
         <f>I15+I34</f>
         <v>867000</v>
       </c>
-      <c r="E56" s="213"/>
+      <c r="E56" s="214"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C57" s="94"/>
-      <c r="D57" s="207">
+      <c r="D57" s="208">
         <v>0</v>
       </c>
-      <c r="E57" s="206"/>
+      <c r="E57" s="207"/>
       <c r="G57" s="94"/>
       <c r="H57" s="94" t="s">
         <v>92</v>
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C58" s="94"/>
-      <c r="D58" s="207">
+      <c r="D58" s="208">
         <v>0</v>
       </c>
-      <c r="E58" s="206"/>
+      <c r="E58" s="207"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7995,7 +8006,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>165</v>
       </c>
@@ -8009,7 +8020,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -8030,7 +8041,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>151</v>
       </c>
@@ -8051,7 +8062,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>153</v>
       </c>
@@ -8072,7 +8083,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="146" t="s">
         <v>163</v>
       </c>
@@ -8087,7 +8098,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>154</v>
       </c>
@@ -8108,7 +8119,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -8118,7 +8129,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>166</v>
       </c>
@@ -8132,7 +8143,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>152</v>
       </c>
@@ -8153,7 +8164,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="146" t="s">
         <v>164</v>
       </c>
@@ -8168,7 +8179,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>155</v>
       </c>
@@ -8189,35 +8200,35 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>136</v>
       </c>
-      <c r="C72" s="210">
+      <c r="C72" s="211">
         <f>Data!C5</f>
         <v>45473</v>
       </c>
-      <c r="D72" s="210"/>
+      <c r="D72" s="211"/>
       <c r="H72" s="50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="209" t="s">
+      <c r="C73" s="210" t="s">
         <v>103</v>
       </c>
-      <c r="D73" s="209"/>
-      <c r="E73" s="211" t="s">
+      <c r="D73" s="210"/>
+      <c r="E73" s="212" t="s">
         <v>104</v>
       </c>
-      <c r="F73" s="209"/>
-    </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F73" s="210"/>
+    </row>
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>135</v>
       </c>
@@ -8232,7 +8243,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8253,7 +8264,7 @@
         <v>0.60969766115231028</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8268,7 +8279,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="117" t="s">
         <v>132</v>
       </c>
@@ -8289,7 +8300,7 @@
         <v>0.10541928123217342</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8304,7 +8315,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="117" t="s">
         <v>128</v>
       </c>
@@ -8325,7 +8336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>134</v>
       </c>
@@ -8346,7 +8357,7 @@
         <v>7.8722190530519116E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8369,7 +8380,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="79" t="s">
         <v>190</v>
       </c>
@@ -8390,7 +8401,7 @@
         <v>1.7227609811751282E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="119" t="s">
         <v>133</v>
       </c>
@@ -8411,7 +8422,7 @@
         <v>0.25978322875071308</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8422,7 +8433,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="93" t="s">
         <v>179</v>
       </c>
@@ -8443,7 +8454,7 @@
         <v>0.20263091842555619</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="94" t="s">
         <v>175</v>
       </c>
@@ -8458,7 +8469,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="93" t="s">
         <v>176</v>
       </c>
@@ -8479,11 +8490,11 @@
         <v>3.3358180205623684</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>168</v>
@@ -8493,52 +8504,52 @@
         <v>144</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D90" s="214" t="s">
+      <c r="D90" s="215" t="s">
         <v>170</v>
       </c>
-      <c r="E90" s="214"/>
+      <c r="E90" s="215"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>194</v>
       </c>
       <c r="C91" s="174" t="s">
         <v>213</v>
       </c>
-      <c r="D91" s="208" t="s">
+      <c r="D91" s="209" t="s">
         <v>171</v>
       </c>
-      <c r="E91" s="208"/>
+      <c r="E91" s="209"/>
       <c r="F91" s="29">
         <f>E83/C68</f>
         <v>4.6514478320821201E-2</v>
       </c>
       <c r="H91" s="187"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (US)</v>
       </c>
       <c r="C92" s="176">
         <f>IF(C91="CN",Dashboard!C17,IF(C91="US",Dashboard!C12,IF(C91="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>9.6250000000000002E-2</v>
-      </c>
-      <c r="D92" s="208" t="s">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D92" s="209" t="s">
         <v>167</v>
       </c>
-      <c r="E92" s="208"/>
+      <c r="E92" s="209"/>
       <c r="F92" s="137">
         <v>0.02</v>
       </c>
       <c r="H92" s="187"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5"/>
       <c r="B94" s="198" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Data!E3&amp;Dashboard!H3</f>
@@ -8550,24 +8561,24 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>18634072.131147541</v>
+        <v>22200750</v>
       </c>
       <c r="D95" s="155">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>2.2802674876631399</v>
+        <v>2.7167249364736628</v>
       </c>
       <c r="E95" s="1">
         <f>E85/C95</f>
-        <v>7.6249999999999998E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="28" t="s">
         <v>156</v>
       </c>
@@ -8582,7 +8593,7 @@
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
     </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B97" s="119" t="s">
         <v>157</v>
       </c>
@@ -8601,28 +8612,28 @@
         <v>143</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>93848172.131147534</v>
+        <v>97414850</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>11.484281813504552</v>
+        <v>11.920739262315074</v>
       </c>
       <c r="E98" s="124">
         <f>D98*(1-25%)</f>
-        <v>8.6132113601284139</v>
+        <v>8.9405544467363054</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>14.35535226688069</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>14.900924077893842</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="10" t="s">
         <v>177</v>
       </c>
@@ -8637,28 +8648,28 @@
         <v>143</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>62159873.611540981</v>
+        <v>74057661.920000002</v>
       </c>
       <c r="D101" s="155">
         <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>7.6065573770491799</v>
+        <v>9.0625</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>5.7049180327868854</v>
+        <v>6.796875</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>9.5081967213114744</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>11.328125</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="10" t="s">
         <v>225</v>
       </c>
@@ -8673,28 +8684,28 @@
         <v>143</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>78004022.871344253</v>
+        <v>85736255.959999993</v>
       </c>
       <c r="D104" s="155">
         <f>(D98+D101)/2</f>
-        <v>9.545419595276865</v>
+        <v>10.491619631157537</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>7.1590646964576488</v>
+        <v>7.8687147233681527</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>11.931774494096082</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>13.11452453894692</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="10" t="s">
         <v>180</v>
       </c>
@@ -8702,16 +8713,16 @@
         <v>229</v>
       </c>
     </row>
-    <row r="108" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C108" s="215">
+    <row r="108" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C108" s="199">
         <f>FV(E95,5,-E85,-C95)</f>
-        <v>35180958.306959279</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C109" s="215">
+        <v>38348083.651688747</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C109" s="199">
         <f>PV(C92,5,0,-C108)</f>
-        <v>22220797.074859794</v>
+        <v>25621069.530244883</v>
       </c>
     </row>
   </sheetData>

--- a/financial_models/opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82A1E79C-0409-4E40-946D-633FE9081434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D08D274D-B476-4C1E-BBD0-E9525F9FFC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17120" windowHeight="10760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -822,17 +811,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1287,7 +1276,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="216">
@@ -1343,8 +1332,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1367,14 +1356,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1399,7 +1388,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1416,7 +1405,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1424,7 +1413,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1471,7 +1460,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1545,7 +1534,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1624,10 +1613,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1638,16 +1627,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1711,7 +1700,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1720,10 +1709,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1744,8 +1733,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1759,7 +1748,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1767,13 +1756,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1783,9 +1772,9 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2116,19 +2105,19 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2137,7 +2126,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2152,7 +2141,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>219</v>
       </c>
@@ -2165,13 +2154,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="171">
-        <v>7.940000057220459</v>
+        <v>7.929999828338623</v>
       </c>
       <c r="H3" s="173" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>220</v>
       </c>
@@ -2189,7 +2178,7 @@
       <c r="H4" s="208"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
@@ -2203,13 +2192,13 @@
       </c>
       <c r="G5" s="200">
         <f>G3*G4/1000000</f>
-        <v>64884.72715943872</v>
+        <v>64803.006489683838</v>
       </c>
       <c r="H5" s="200"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2233,7 +2222,7 @@
       <c r="H6" s="201"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="93" t="s">
         <v>217</v>
       </c>
@@ -2255,8 +2244,8 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="180" t="s">
         <v>215</v>
       </c>
@@ -2264,7 +2253,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>197</v>
       </c>
@@ -2275,7 +2264,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="147" t="s">
         <v>201</v>
       </c>
@@ -2289,7 +2278,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="94" t="s">
         <v>141</v>
       </c>
@@ -2301,8 +2290,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>198</v>
       </c>
@@ -2313,7 +2302,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>210</v>
       </c>
@@ -2324,7 +2313,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="147" t="s">
         <v>211</v>
       </c>
@@ -2338,7 +2327,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="94" t="s">
         <v>203</v>
       </c>
@@ -2347,8 +2336,8 @@
       </c>
       <c r="D17" s="189"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="185" t="s">
         <v>207</v>
       </c>
@@ -2363,7 +2352,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="177" t="s">
         <v>185</v>
       </c>
@@ -2379,7 +2368,7 @@
         <v>4.6514478320821201E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="177" t="s">
         <v>186</v>
       </c>
@@ -2395,7 +2384,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="177" t="s">
         <v>187</v>
       </c>
@@ -2407,7 +2396,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="177" t="s">
         <v>188</v>
       </c>
@@ -2420,10 +2409,10 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.39012919478245461</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.38963783694703957</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="177" t="s">
         <v>189</v>
       </c>
@@ -2436,10 +2425,10 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>2.1898034594622019E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2.1925649394464258E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="177" t="s">
         <v>216</v>
       </c>
@@ -2455,7 +2444,7 @@
         <v>3.3358180205623684</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="179" t="s">
         <v>191</v>
       </c>
@@ -2468,11 +2457,11 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>7.3047858415638281E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7.3139976362586262E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2490,7 +2479,7 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="94" t="s">
         <v>184</v>
       </c>
@@ -2509,900 +2498,900 @@
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3466,7 +3455,7 @@
       <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3474,7 +3463,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3482,7 +3471,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3499,7 +3488,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3525,13 +3514,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="140" t="s">
         <v>145</v>
@@ -3581,7 +3570,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3611,7 +3600,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3662,7 +3651,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3692,7 +3681,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3743,7 +3732,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3773,7 +3762,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3824,7 +3813,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3852,7 +3841,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3903,7 +3892,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3921,7 +3910,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3951,7 +3940,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3973,7 +3962,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>128</v>
@@ -4003,7 +3992,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -4025,7 +4014,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4076,7 +4065,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4127,7 +4116,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4178,7 +4167,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4229,7 +4218,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>137</v>
@@ -4280,7 +4269,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="139" t="s">
         <v>146</v>
@@ -4331,7 +4320,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4382,7 +4371,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4413,7 +4402,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>120</v>
@@ -4434,7 +4423,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>160</v>
@@ -4455,7 +4444,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4486,7 +4475,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>119</v>
@@ -4517,7 +4506,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4548,7 +4537,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4579,7 +4568,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4630,7 +4619,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>149</v>
@@ -4661,7 +4650,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>150</v>
@@ -4690,7 +4679,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>148</v>
@@ -4711,7 +4700,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>152</v>
@@ -4762,7 +4751,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>172</v>
@@ -4813,7 +4802,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>131</v>
@@ -4831,7 +4820,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4882,7 +4871,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>125</v>
@@ -4933,7 +4922,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4984,7 +4973,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -5035,7 +5024,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>126</v>
@@ -5086,7 +5075,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>138</v>
@@ -5137,7 +5126,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>129</v>
@@ -5188,7 +5177,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>161</v>
@@ -5206,7 +5195,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>158</v>
@@ -5257,7 +5246,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>159</v>
@@ -5308,7 +5297,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>130</v>
@@ -5325,7 +5314,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5375,7 +5364,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>124</v>
@@ -5425,7 +5414,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>127</v>
@@ -5475,7 +5464,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5525,1260 +5514,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6817,7 +6806,7 @@
       <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
@@ -6826,11 +6815,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6846,7 +6835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6869,7 +6858,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6885,7 +6874,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6900,7 +6889,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -6925,7 +6914,7 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -6948,13 +6937,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6973,7 +6962,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6998,7 +6987,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -7021,7 +7010,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>147</v>
       </c>
@@ -7046,7 +7035,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>120</v>
       </c>
@@ -7069,7 +7058,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -7092,7 +7081,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7117,7 +7106,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>173</v>
       </c>
@@ -7137,7 +7126,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>121</v>
       </c>
@@ -7157,7 +7146,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7176,7 +7165,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7198,7 +7187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>123</v>
       </c>
@@ -7222,7 +7211,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7241,7 +7230,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7265,7 +7254,7 @@
         <v>7798000</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7274,7 +7263,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7296,7 +7285,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7325,7 +7314,7 @@
         <v>7.9019953952417499</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7358,7 +7347,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7391,7 +7380,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7420,7 +7409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7432,7 +7421,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7455,7 +7444,7 @@
       </c>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7479,7 +7468,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7501,7 +7490,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>174</v>
       </c>
@@ -7526,7 +7515,7 @@
       <c r="I33" s="145"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7551,7 +7540,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7574,7 +7563,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7598,7 +7587,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7622,7 +7611,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>122</v>
       </c>
@@ -7641,7 +7630,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7660,7 +7649,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7679,7 +7668,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7698,7 +7687,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7722,7 +7711,7 @@
         <v>5363000</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7731,7 +7720,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7750,7 +7739,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7769,7 +7758,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7799,7 +7788,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7829,7 +7818,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7855,7 +7844,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7882,20 +7871,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7912,7 +7901,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7933,7 +7922,7 @@
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7942,7 +7931,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>162</v>
       </c>
@@ -7953,7 +7942,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -7968,7 +7957,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7983,7 +7972,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7997,7 +7986,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -8006,7 +7995,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>165</v>
       </c>
@@ -8020,7 +8009,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -8041,7 +8030,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>151</v>
       </c>
@@ -8062,7 +8051,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>153</v>
       </c>
@@ -8083,7 +8072,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="146" t="s">
         <v>163</v>
       </c>
@@ -8098,7 +8087,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>154</v>
       </c>
@@ -8119,7 +8108,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -8129,7 +8118,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>166</v>
       </c>
@@ -8143,7 +8132,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>152</v>
       </c>
@@ -8164,7 +8153,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="146" t="s">
         <v>164</v>
       </c>
@@ -8179,7 +8168,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>155</v>
       </c>
@@ -8200,7 +8189,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>136</v>
@@ -8214,7 +8203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
@@ -8228,7 +8217,7 @@
       </c>
       <c r="F73" s="210"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>135</v>
       </c>
@@ -8243,7 +8232,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8264,7 +8253,7 @@
         <v>0.60969766115231028</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8279,7 +8268,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="117" t="s">
         <v>132</v>
       </c>
@@ -8300,7 +8289,7 @@
         <v>0.10541928123217342</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8315,7 +8304,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="117" t="s">
         <v>128</v>
       </c>
@@ -8336,7 +8325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>134</v>
       </c>
@@ -8357,7 +8346,7 @@
         <v>7.8722190530519116E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8380,7 +8369,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="79" t="s">
         <v>190</v>
       </c>
@@ -8401,7 +8390,7 @@
         <v>1.7227609811751282E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="119" t="s">
         <v>133</v>
       </c>
@@ -8422,7 +8411,7 @@
         <v>0.25978322875071308</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8433,7 +8422,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="93" t="s">
         <v>179</v>
       </c>
@@ -8454,7 +8443,7 @@
         <v>0.20263091842555619</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="94" t="s">
         <v>175</v>
       </c>
@@ -8469,7 +8458,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="93" t="s">
         <v>176</v>
       </c>
@@ -8490,11 +8479,11 @@
         <v>3.3358180205623684</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>168</v>
@@ -8504,7 +8493,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
@@ -8514,7 +8503,7 @@
       <c r="E90" s="215"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
         <v>194</v>
       </c>
@@ -8531,7 +8520,7 @@
       </c>
       <c r="H91" s="187"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (US)</v>
@@ -8549,7 +8538,7 @@
       </c>
       <c r="H92" s="187"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="198" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Data!E3&amp;Dashboard!H3</f>
@@ -8561,7 +8550,7 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1" t="s">
         <v>139</v>
       </c>
@@ -8578,7 +8567,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>156</v>
       </c>
@@ -8593,7 +8582,7 @@
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
     </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B97" s="119" t="s">
         <v>157</v>
       </c>
@@ -8612,7 +8601,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>226</v>
       </c>
@@ -8633,7 +8622,7 @@
         <v>14.900924077893842</v>
       </c>
     </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10" t="s">
         <v>177</v>
       </c>
@@ -8648,7 +8637,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="1" t="s">
         <v>227</v>
       </c>
@@ -8669,7 +8658,7 @@
         <v>11.328125</v>
       </c>
     </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
         <v>225</v>
       </c>
@@ -8684,7 +8673,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B104" s="1" t="s">
         <v>228</v>
       </c>
@@ -8705,7 +8694,7 @@
         <v>13.11452453894692</v>
       </c>
     </row>
-    <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="10" t="s">
         <v>180</v>
       </c>
@@ -8713,13 +8702,13 @@
         <v>229</v>
       </c>
     </row>
-    <row r="108" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C108" s="199">
         <f>FV(E95,5,-E85,-C95)</f>
         <v>38348083.651688747</v>
       </c>
     </row>
-    <row r="109" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C109" s="199">
         <f>PV(C92,5,0,-C108)</f>
         <v>25621069.530244883</v>

--- a/financial_models/opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D08D274D-B476-4C1E-BBD0-E9525F9FFC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EAE5929-A6D5-A045-8F35-8A01257F6DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="2200" windowWidth="12700" windowHeight="7640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -811,17 +822,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1276,7 +1287,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="216">
@@ -1332,8 +1343,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1356,14 +1367,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1388,7 +1399,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1405,7 +1416,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1413,7 +1424,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1460,7 +1471,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1534,7 +1545,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1613,10 +1624,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1627,16 +1638,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1700,7 +1711,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1709,10 +1720,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1733,8 +1744,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1748,7 +1759,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1756,13 +1767,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1772,9 +1783,9 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2105,19 +2116,19 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2126,7 +2137,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2141,7 +2152,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>219</v>
       </c>
@@ -2160,7 +2171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
         <v>220</v>
       </c>
@@ -2178,7 +2189,7 @@
       <c r="H4" s="208"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
@@ -2198,7 +2209,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2222,7 +2233,7 @@
       <c r="H6" s="201"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="93" t="s">
         <v>217</v>
       </c>
@@ -2244,8 +2255,8 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="180" t="s">
         <v>215</v>
       </c>
@@ -2253,7 +2264,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>197</v>
       </c>
@@ -2264,7 +2275,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="147" t="s">
         <v>201</v>
       </c>
@@ -2278,7 +2289,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="94" t="s">
         <v>141</v>
       </c>
@@ -2290,8 +2301,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>198</v>
       </c>
@@ -2302,7 +2313,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>210</v>
       </c>
@@ -2313,7 +2324,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="147" t="s">
         <v>211</v>
       </c>
@@ -2327,7 +2338,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="94" t="s">
         <v>203</v>
       </c>
@@ -2336,8 +2347,8 @@
       </c>
       <c r="D17" s="189"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="185" t="s">
         <v>207</v>
       </c>
@@ -2352,7 +2363,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="177" t="s">
         <v>185</v>
       </c>
@@ -2368,7 +2379,7 @@
         <v>4.6514478320821201E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="177" t="s">
         <v>186</v>
       </c>
@@ -2384,7 +2395,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="177" t="s">
         <v>187</v>
       </c>
@@ -2396,7 +2407,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="177" t="s">
         <v>188</v>
       </c>
@@ -2412,7 +2423,7 @@
         <v>0.38963783694703957</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="177" t="s">
         <v>189</v>
       </c>
@@ -2428,7 +2439,7 @@
         <v>2.1925649394464258E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="177" t="s">
         <v>216</v>
       </c>
@@ -2444,7 +2455,7 @@
         <v>3.3358180205623684</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="179" t="s">
         <v>191</v>
       </c>
@@ -2460,8 +2471,8 @@
         <v>7.3139976362586262E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2479,7 +2490,7 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
         <v>184</v>
       </c>
@@ -2498,900 +2509,900 @@
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3455,7 +3466,7 @@
       <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3463,7 +3474,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3471,7 +3482,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3488,7 +3499,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3514,13 +3525,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="140" t="s">
         <v>145</v>
@@ -3570,7 +3581,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3600,7 +3611,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3651,7 +3662,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3681,7 +3692,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3732,7 +3743,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3762,7 +3773,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3813,7 +3824,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3841,7 +3852,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3892,7 +3903,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3910,7 +3921,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3940,7 +3951,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3962,7 +3973,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>128</v>
@@ -3992,7 +4003,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -4014,7 +4025,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4065,7 +4076,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4116,7 +4127,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4167,7 +4178,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4218,7 +4229,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>137</v>
@@ -4269,7 +4280,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="139" t="s">
         <v>146</v>
@@ -4320,7 +4331,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4371,7 +4382,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4402,7 +4413,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>120</v>
@@ -4423,7 +4434,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>160</v>
@@ -4444,7 +4455,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4475,7 +4486,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>119</v>
@@ -4506,7 +4517,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4537,7 +4548,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4568,7 +4579,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4619,7 +4630,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>149</v>
@@ -4650,7 +4661,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>150</v>
@@ -4679,7 +4690,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>148</v>
@@ -4700,7 +4711,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>152</v>
@@ -4751,7 +4762,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>172</v>
@@ -4802,7 +4813,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>131</v>
@@ -4820,7 +4831,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4871,7 +4882,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>125</v>
@@ -4922,7 +4933,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4973,7 +4984,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -5024,7 +5035,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>126</v>
@@ -5075,7 +5086,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>138</v>
@@ -5126,7 +5137,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>129</v>
@@ -5177,7 +5188,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>161</v>
@@ -5195,7 +5206,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>158</v>
@@ -5246,7 +5257,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>159</v>
@@ -5297,7 +5308,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>130</v>
@@ -5314,7 +5325,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5364,7 +5375,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>124</v>
@@ -5414,7 +5425,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>127</v>
@@ -5464,7 +5475,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5514,1260 +5525,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6806,7 +6817,7 @@
       <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
@@ -6815,11 +6826,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6835,7 +6846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6858,7 +6869,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6874,7 +6885,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6889,7 +6900,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -6914,7 +6925,7 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -6937,13 +6948,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6962,7 +6973,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6987,7 +6998,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -7010,7 +7021,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>147</v>
       </c>
@@ -7035,7 +7046,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>120</v>
       </c>
@@ -7058,7 +7069,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -7081,7 +7092,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7106,7 +7117,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>173</v>
       </c>
@@ -7126,7 +7137,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>121</v>
       </c>
@@ -7146,7 +7157,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7165,7 +7176,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7187,7 +7198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>123</v>
       </c>
@@ -7211,7 +7222,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7230,7 +7241,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7254,7 +7265,7 @@
         <v>7798000</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7263,7 +7274,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7285,7 +7296,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7314,7 +7325,7 @@
         <v>7.9019953952417499</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7347,7 +7358,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7380,7 +7391,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7409,7 +7420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7421,7 +7432,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7444,7 +7455,7 @@
       </c>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7468,7 +7479,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7490,7 +7501,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>174</v>
       </c>
@@ -7515,7 +7526,7 @@
       <c r="I33" s="145"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7540,7 +7551,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7563,7 +7574,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7587,7 +7598,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7611,7 +7622,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>122</v>
       </c>
@@ -7630,7 +7641,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7649,7 +7660,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7668,7 +7679,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7687,7 +7698,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7711,7 +7722,7 @@
         <v>5363000</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7720,7 +7731,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7739,7 +7750,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7758,7 +7769,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7788,7 +7799,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7818,7 +7829,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7844,7 +7855,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7871,20 +7882,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7901,7 +7912,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7922,7 +7933,7 @@
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7931,7 +7942,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>162</v>
       </c>
@@ -7942,7 +7953,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -7957,7 +7968,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7972,7 +7983,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7986,7 +7997,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7995,7 +8006,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>165</v>
       </c>
@@ -8009,7 +8020,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -8030,7 +8041,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>151</v>
       </c>
@@ -8051,7 +8062,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>153</v>
       </c>
@@ -8072,7 +8083,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="146" t="s">
         <v>163</v>
       </c>
@@ -8087,7 +8098,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>154</v>
       </c>
@@ -8108,7 +8119,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -8118,7 +8129,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>166</v>
       </c>
@@ -8132,7 +8143,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>152</v>
       </c>
@@ -8153,7 +8164,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="146" t="s">
         <v>164</v>
       </c>
@@ -8168,7 +8179,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>155</v>
       </c>
@@ -8189,7 +8200,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>136</v>
@@ -8203,7 +8214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
@@ -8217,7 +8228,7 @@
       </c>
       <c r="F73" s="210"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>135</v>
       </c>
@@ -8232,7 +8243,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8253,7 +8264,7 @@
         <v>0.60969766115231028</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8268,7 +8279,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="117" t="s">
         <v>132</v>
       </c>
@@ -8289,7 +8300,7 @@
         <v>0.10541928123217342</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8304,7 +8315,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="117" t="s">
         <v>128</v>
       </c>
@@ -8325,7 +8336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>134</v>
       </c>
@@ -8346,7 +8357,7 @@
         <v>7.8722190530519116E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8369,7 +8380,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="79" t="s">
         <v>190</v>
       </c>
@@ -8390,7 +8401,7 @@
         <v>1.7227609811751282E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="119" t="s">
         <v>133</v>
       </c>
@@ -8411,7 +8422,7 @@
         <v>0.25978322875071308</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8422,7 +8433,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="93" t="s">
         <v>179</v>
       </c>
@@ -8443,7 +8454,7 @@
         <v>0.20263091842555619</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="94" t="s">
         <v>175</v>
       </c>
@@ -8458,7 +8469,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="93" t="s">
         <v>176</v>
       </c>
@@ -8479,11 +8490,11 @@
         <v>3.3358180205623684</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>168</v>
@@ -8493,7 +8504,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
@@ -8503,7 +8514,7 @@
       <c r="E90" s="215"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>194</v>
       </c>
@@ -8520,7 +8531,7 @@
       </c>
       <c r="H91" s="187"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (US)</v>
@@ -8538,7 +8549,7 @@
       </c>
       <c r="H92" s="187"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5"/>
       <c r="B94" s="198" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Data!E3&amp;Dashboard!H3</f>
@@ -8550,7 +8561,7 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>139</v>
       </c>
@@ -8567,7 +8578,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="28" t="s">
         <v>156</v>
       </c>
@@ -8582,7 +8593,7 @@
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
     </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B97" s="119" t="s">
         <v>157</v>
       </c>
@@ -8601,7 +8612,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
         <v>226</v>
       </c>
@@ -8622,7 +8633,7 @@
         <v>14.900924077893842</v>
       </c>
     </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="10" t="s">
         <v>177</v>
       </c>
@@ -8637,7 +8648,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
         <v>227</v>
       </c>
@@ -8658,7 +8669,7 @@
         <v>11.328125</v>
       </c>
     </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="10" t="s">
         <v>225</v>
       </c>
@@ -8673,7 +8684,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="1" t="s">
         <v>228</v>
       </c>
@@ -8694,7 +8705,7 @@
         <v>13.11452453894692</v>
       </c>
     </row>
-    <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="10" t="s">
         <v>180</v>
       </c>
@@ -8702,13 +8713,13 @@
         <v>229</v>
       </c>
     </row>
-    <row r="108" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C108" s="199">
         <f>FV(E95,5,-E85,-C95)</f>
         <v>38348083.651688747</v>
       </c>
     </row>
-    <row r="109" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C109" s="199">
         <f>PV(C92,5,0,-C108)</f>
         <v>25621069.530244883</v>

--- a/financial_models/opportunities/0083.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0083.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EAE5929-A6D5-A045-8F35-8A01257F6DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BAE696F-57A6-47F8-B635-65B3D5DF2B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="2200" windowWidth="12700" windowHeight="7640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="12690" windowHeight="7642" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -822,17 +811,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1287,7 +1276,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="216">
@@ -1343,8 +1332,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1367,14 +1356,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1399,7 +1388,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1416,7 +1405,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1424,7 +1413,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1471,7 +1460,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1545,7 +1534,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1624,10 +1613,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1638,16 +1627,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1711,7 +1700,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1720,10 +1709,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1744,8 +1733,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1759,7 +1748,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1767,13 +1756,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1783,9 +1772,9 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2116,19 +2105,19 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2137,7 +2126,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2152,7 +2141,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>219</v>
       </c>
@@ -2171,7 +2160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>220</v>
       </c>
@@ -2189,7 +2178,7 @@
       <c r="H4" s="208"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
@@ -2209,7 +2198,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2233,7 +2222,7 @@
       <c r="H6" s="201"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="93" t="s">
         <v>217</v>
       </c>
@@ -2255,8 +2244,8 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="180" t="s">
         <v>215</v>
       </c>
@@ -2264,7 +2253,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>197</v>
       </c>
@@ -2275,7 +2264,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="147" t="s">
         <v>201</v>
       </c>
@@ -2289,7 +2278,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="94" t="s">
         <v>141</v>
       </c>
@@ -2301,8 +2290,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>198</v>
       </c>
@@ -2313,7 +2302,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>210</v>
       </c>
@@ -2324,7 +2313,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="147" t="s">
         <v>211</v>
       </c>
@@ -2338,7 +2327,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="94" t="s">
         <v>203</v>
       </c>
@@ -2347,8 +2336,8 @@
       </c>
       <c r="D17" s="189"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="185" t="s">
         <v>207</v>
       </c>
@@ -2363,7 +2352,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="177" t="s">
         <v>185</v>
       </c>
@@ -2379,7 +2368,7 @@
         <v>4.6514478320821201E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="177" t="s">
         <v>186</v>
       </c>
@@ -2395,7 +2384,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="177" t="s">
         <v>187</v>
       </c>
@@ -2407,7 +2396,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="177" t="s">
         <v>188</v>
       </c>
@@ -2423,7 +2412,7 @@
         <v>0.38963783694703957</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="177" t="s">
         <v>189</v>
       </c>
@@ -2439,7 +2428,7 @@
         <v>2.1925649394464258E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="177" t="s">
         <v>216</v>
       </c>
@@ -2455,7 +2444,7 @@
         <v>3.3358180205623684</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="179" t="s">
         <v>191</v>
       </c>
@@ -2471,8 +2460,8 @@
         <v>7.3139976362586262E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2490,7 +2479,7 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="94" t="s">
         <v>184</v>
       </c>
@@ -2509,900 +2498,900 @@
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3466,7 +3455,7 @@
       <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3474,7 +3463,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3482,7 +3471,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3499,7 +3488,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3525,13 +3514,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="140" t="s">
         <v>145</v>
@@ -3581,7 +3570,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3611,7 +3600,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3662,7 +3651,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3692,7 +3681,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3743,7 +3732,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3773,7 +3762,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3824,7 +3813,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3852,7 +3841,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3903,7 +3892,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3921,7 +3910,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3951,7 +3940,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3973,7 +3962,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>128</v>
@@ -4003,7 +3992,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -4025,7 +4014,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4076,7 +4065,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4127,7 +4116,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4178,7 +4167,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4229,7 +4218,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>137</v>
@@ -4280,7 +4269,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="139" t="s">
         <v>146</v>
@@ -4331,7 +4320,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4382,7 +4371,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4413,7 +4402,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>120</v>
@@ -4434,7 +4423,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>160</v>
@@ -4455,7 +4444,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4486,7 +4475,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>119</v>
@@ -4517,7 +4506,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4548,7 +4537,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4579,7 +4568,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4630,7 +4619,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>149</v>
@@ -4661,7 +4650,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>150</v>
@@ -4690,7 +4679,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>148</v>
@@ -4711,7 +4700,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>152</v>
@@ -4762,7 +4751,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>172</v>
@@ -4813,7 +4802,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>131</v>
@@ -4831,7 +4820,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4882,7 +4871,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>125</v>
@@ -4933,7 +4922,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4984,7 +4973,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -5035,7 +5024,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>126</v>
@@ -5086,7 +5075,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>138</v>
@@ -5137,7 +5126,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>129</v>
@@ -5188,7 +5177,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>161</v>
@@ -5206,7 +5195,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>158</v>
@@ -5257,7 +5246,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>159</v>
@@ -5308,7 +5297,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>130</v>
@@ -5325,7 +5314,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5375,7 +5364,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>124</v>
@@ -5425,7 +5414,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>127</v>
@@ -5475,7 +5464,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5525,1260 +5514,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x1